--- a/Statistik.xlsx
+++ b/Statistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korme\Documents\FFL\OrgChart\FeuerwehrOrgChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1903525F-C765-4062-86AC-306E6ECDAE24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54AD25F-6AEE-4B0B-AE30-A35089FE12C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7980" activeTab="3" xr2:uid="{1E90455A-D486-4C91-9C89-24F93EAD6257}"/>
   </bookViews>
@@ -2183,7 +2183,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>XX Feuerwehrmitglieder</a:t>
+              <a:t>70 Feuerwehrmitglieder</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3969,7 +3969,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Statistik.xlsx
+++ b/Statistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korme\Documents\FFL\OrgChart\FeuerwehrOrgChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54AD25F-6AEE-4B0B-AE30-A35089FE12C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB113FA-866E-448E-BE40-E99D51F22FCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7980" activeTab="3" xr2:uid="{1E90455A-D486-4C91-9C89-24F93EAD6257}"/>
   </bookViews>
@@ -18,10 +18,15 @@
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId3"/>
     <sheet name="Testen" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -711,6 +716,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-671B-4EF4-A094-3D5DF805B69B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -726,6 +736,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-671B-4EF4-A094-3D5DF805B69B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -741,6 +756,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-671B-4EF4-A094-3D5DF805B69B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2941,15 +2961,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>364274</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>131593</xdr:rowOff>
+      <xdr:colOff>296238</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>49950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>148318</xdr:rowOff>
+      <xdr:colOff>179613</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2964,7 +2984,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="364274" y="7561093"/>
+          <a:off x="296238" y="4812450"/>
           <a:ext cx="2495946" cy="1159725"/>
           <a:chOff x="592875" y="1021500"/>
           <a:chExt cx="2512275" cy="1159725"/>
@@ -3147,15 +3167,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>428623</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>360587</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>74840</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3170,7 +3190,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="428623" y="4781550"/>
+          <a:off x="360587" y="7353300"/>
           <a:ext cx="2326824" cy="1114425"/>
           <a:chOff x="323848" y="1752600"/>
           <a:chExt cx="2343152" cy="1114425"/>
@@ -3968,7 +3988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121805A9-54A9-4580-9DA1-545FEF75DEDD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>

--- a/Statistik.xlsx
+++ b/Statistik.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korme\Documents\FFL\OrgChart\FeuerwehrOrgChart\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB113FA-866E-448E-BE40-E99D51F22FCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7980" activeTab="3" xr2:uid="{1E90455A-D486-4C91-9C89-24F93EAD6257}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Einsätze" sheetId="1" r:id="rId1"/>
@@ -71,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -121,9 +115,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -217,7 +211,7 @@
               <c:f>Einsätze!$C$3:$E$3</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-03C3-4765-B7E7-4720BAA23E82}"/>
             </c:ext>
@@ -282,7 +276,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-03C3-4765-B7E7-4720BAA23E82}"/>
             </c:ext>
@@ -347,7 +341,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-03C3-4765-B7E7-4720BAA23E82}"/>
             </c:ext>
@@ -412,7 +406,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-03C3-4765-B7E7-4720BAA23E82}"/>
             </c:ext>
@@ -428,11 +422,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="576864511"/>
-        <c:axId val="575982303"/>
+        <c:axId val="192158208"/>
+        <c:axId val="181930240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="576864511"/>
+        <c:axId val="192158208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +469,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575982303"/>
+        <c:crossAx val="181930240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="575982303"/>
+        <c:axId val="181930240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +528,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576864511"/>
+        <c:crossAx val="192158208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -615,9 +609,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -662,26 +656,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -716,7 +690,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-671B-4EF4-A094-3D5DF805B69B}"/>
               </c:ext>
@@ -736,7 +710,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-671B-4EF4-A094-3D5DF805B69B}"/>
               </c:ext>
@@ -756,7 +730,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-671B-4EF4-A094-3D5DF805B69B}"/>
               </c:ext>
@@ -797,7 +771,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CDC4-4D91-9317-88F1F9D056D7}"/>
             </c:ext>
@@ -856,14 +830,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2022,7 +1996,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9AE7CD-1B0E-457C-8C89-9DEA06CA316C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D9AE7CD-1B0E-457C-8C89-9DEA06CA316C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2032,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9CB5DA-C670-4A94-8B78-49950A1AB9C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B9CB5DA-C670-4A94-8B78-49950A1AB9C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2073,7 @@
         <xdr:cNvPr id="71" name="Group 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B24EEEB-3250-4085-985E-BF2194A03637}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B24EEEB-3250-4085-985E-BF2194A03637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2092,7 @@
           <xdr:cNvPr id="38" name="Graphic 37" descr="Firefighter">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4455EC-7B99-4120-AB5B-7F11819D2246}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C4455EC-7B99-4120-AB5B-7F11819D2246}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2127,13 +2101,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2156,7 +2130,7 @@
           <xdr:cNvPr id="25" name="TextBox 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EA86BC-4B1E-4059-9943-335F5A61D0AA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08EA86BC-4B1E-4059-9943-335F5A61D0AA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2229,7 +2203,7 @@
         <xdr:cNvPr id="43" name="Group 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0CC41D-6932-41C3-A20C-D28B643AEA1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A0CC41D-6932-41C3-A20C-D28B643AEA1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2222,7 @@
           <xdr:cNvPr id="34" name="Graphic 33" descr="Run">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3A477F-B806-4947-9B23-8E8C5B7710E4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D3A477F-B806-4947-9B23-8E8C5B7710E4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2257,13 +2231,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2286,7 +2260,7 @@
           <xdr:cNvPr id="40" name="Graphic 39" descr="Fire">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AEB81B-6082-4CF7-A6E7-9012269F2B61}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55AEB81B-6082-4CF7-A6E7-9012269F2B61}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2295,13 +2269,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2324,7 +2298,7 @@
           <xdr:cNvPr id="41" name="TextBox 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF5640-1D66-4EE5-9297-46AE3FD3F71B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DEF5640-1D66-4EE5-9297-46AE3FD3F71B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2406,7 +2380,7 @@
         <xdr:cNvPr id="49" name="Group 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6F0C16-C0F2-46BE-BF10-8CED58FDEB25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA6F0C16-C0F2-46BE-BF10-8CED58FDEB25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2399,7 @@
           <xdr:cNvPr id="45" name="Graphic 44" descr="Run">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59668DB-7467-4EB9-BA68-3C44B6B2AF51}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A59668DB-7467-4EB9-BA68-3C44B6B2AF51}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2434,13 +2408,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2463,7 +2437,7 @@
           <xdr:cNvPr id="47" name="Graphic 46" descr="Car">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239640D5-8BBB-49A5-9208-7DBF898135E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{239640D5-8BBB-49A5-9208-7DBF898135E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2472,13 +2446,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2501,7 +2475,7 @@
           <xdr:cNvPr id="48" name="TextBox 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017CBDAE-2538-4BBF-8AF3-A7DBC2BEA6C2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{017CBDAE-2538-4BBF-8AF3-A7DBC2BEA6C2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2593,7 +2567,7 @@
         <xdr:cNvPr id="51" name="Group 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF2C796-1310-44FC-8329-CFFEB2D70841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFF2C796-1310-44FC-8329-CFFEB2D70841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2586,7 @@
           <xdr:cNvPr id="30" name="Graphic 29" descr="Teacher">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2808CA12-4DE7-452C-BF9E-F92E63C7A71A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2808CA12-4DE7-452C-BF9E-F92E63C7A71A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2621,13 +2595,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2650,7 +2624,7 @@
           <xdr:cNvPr id="50" name="TextBox 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609F8E76-5291-4AE3-9A81-32C5260C349B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{609F8E76-5291-4AE3-9A81-32C5260C349B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2700,53 +2674,6 @@
               <a:t>24 Kursbesuche</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0"/>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>507 Stunden</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0"/>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>40</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> Mitglieder</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-AT" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
@@ -2770,7 +2697,7 @@
         <xdr:cNvPr id="59" name="Group 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D3DA6A-B91D-4942-A3B6-F1800F674D73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29D3DA6A-B91D-4942-A3B6-F1800F674D73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2716,7 @@
           <xdr:cNvPr id="53" name="Graphic 52" descr="Firefighter">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0510D4A7-0655-412F-B35A-E0C9F6852ED8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0510D4A7-0655-412F-B35A-E0C9F6852ED8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2798,13 +2725,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2827,7 +2754,7 @@
           <xdr:cNvPr id="55" name="Graphic 54" descr="Dance">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D26409A-E575-40AB-91FE-F0ADE865C868}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D26409A-E575-40AB-91FE-F0ADE865C868}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2836,13 +2763,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2865,7 +2792,7 @@
           <xdr:cNvPr id="56" name="TextBox 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E95BAE-66C4-4A7C-9172-2EBC98FEB532}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9E95BAE-66C4-4A7C-9172-2EBC98FEB532}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2922,7 +2849,7 @@
           <xdr:cNvPr id="58" name="Graphic 57" descr="Champagne glasses">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AC05FE-985F-43E7-997B-1DC982F6FDE6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59AC05FE-985F-43E7-997B-1DC982F6FDE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2937,7 +2864,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2976,7 +2903,7 @@
         <xdr:cNvPr id="64" name="Group 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84CB8D6-4644-4285-AEF2-7D061A604B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E84CB8D6-4644-4285-AEF2-7D061A604B1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2995,7 +2922,7 @@
           <xdr:cNvPr id="36" name="Graphic 35" descr="Professor">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66B352F-C2FB-4972-8E06-F72AAC861EC8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B66B352F-C2FB-4972-8E06-F72AAC861EC8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3004,13 +2931,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3033,7 +2960,7 @@
           <xdr:cNvPr id="61" name="Graphic 60" descr="Puzzle pieces">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE0AF46-6FFB-4F29-ACE7-EECA1A921878}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BE0AF46-6FFB-4F29-ACE7-EECA1A921878}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3042,13 +2969,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId20"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3071,7 +2998,7 @@
           <xdr:cNvPr id="62" name="Graphic 61" descr="Firefighter">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69D62C5-227C-4429-AA14-CECB8A1A70DD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C69D62C5-227C-4429-AA14-CECB8A1A70DD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3080,13 +3007,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3109,7 +3036,7 @@
           <xdr:cNvPr id="63" name="TextBox 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FA3C42-8085-4CB7-A6D7-B1C982ED06F0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5FA3C42-8085-4CB7-A6D7-B1C982ED06F0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3182,7 +3109,7 @@
         <xdr:cNvPr id="70" name="Group 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8374E2B-69FC-4A52-AA3B-E1F2DB0A901A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8374E2B-69FC-4A52-AA3B-E1F2DB0A901A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +3128,7 @@
           <xdr:cNvPr id="66" name="Graphic 65" descr="Teacher">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A1738F-912E-447A-8F1D-93DBCDA3F030}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09A1738F-912E-447A-8F1D-93DBCDA3F030}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3210,13 +3137,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3239,7 +3166,7 @@
           <xdr:cNvPr id="68" name="Graphic 67" descr="Group of men">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B52E31B-92C6-4ABA-A08B-DD2D3AC3DB9A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B52E31B-92C6-4ABA-A08B-DD2D3AC3DB9A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3248,13 +3175,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId24"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3277,7 +3204,7 @@
           <xdr:cNvPr id="69" name="TextBox 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0EE795-DA4E-4EF9-BCA2-494D8CDCAF39}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A0EE795-DA4E-4EF9-BCA2-494D8CDCAF39}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3350,7 +3277,7 @@
         <xdr:cNvPr id="75" name="Group 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCEC805-68B3-4D3F-B31F-1D139A104D8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCCEC805-68B3-4D3F-B31F-1D139A104D8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3296,7 @@
           <xdr:cNvPr id="73" name="Graphic 72" descr="Stopwatch">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0CFB32-D53F-434C-B7D8-AC67635B1D62}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C0CFB32-D53F-434C-B7D8-AC67635B1D62}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3378,13 +3305,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId26"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3407,7 +3334,7 @@
           <xdr:cNvPr id="74" name="TextBox 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B20627-EAA9-46D6-A0EF-CEE3EFD7CD7F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7B20627-EAA9-46D6-A0EF-CEE3EFD7CD7F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3801,21 +3728,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BB69E5-5DF0-41B0-8A0F-2761C27B3CDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -3900,28 +3827,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C049F4FF-1204-4D55-8D75-00AB3F4BD6AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4815FB4-2D6B-4BE8-8933-093862E65B3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3985,14 +3912,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121805A9-54A9-4580-9DA1-545FEF75DEDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Statistik.xlsx
+++ b/Statistik.xlsx
@@ -422,11 +422,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="192158208"/>
-        <c:axId val="181930240"/>
+        <c:axId val="200370176"/>
+        <c:axId val="136180224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192158208"/>
+        <c:axId val="200370176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,7 +469,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181930240"/>
+        <c:crossAx val="136180224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -477,7 +477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181930240"/>
+        <c:axId val="136180224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +528,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192158208"/>
+        <c:crossAx val="200370176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1996,7 +1996,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D9AE7CD-1B0E-457C-8C89-9DEA06CA316C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9AE7CD-1B0E-457C-8C89-9DEA06CA316C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2032,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B9CB5DA-C670-4A94-8B78-49950A1AB9C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9CB5DA-C670-4A94-8B78-49950A1AB9C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2073,7 @@
         <xdr:cNvPr id="71" name="Group 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B24EEEB-3250-4085-985E-BF2194A03637}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B24EEEB-3250-4085-985E-BF2194A03637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2092,7 @@
           <xdr:cNvPr id="38" name="Graphic 37" descr="Firefighter">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C4455EC-7B99-4120-AB5B-7F11819D2246}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4455EC-7B99-4120-AB5B-7F11819D2246}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2107,7 +2107,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2130,7 +2130,7 @@
           <xdr:cNvPr id="25" name="TextBox 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08EA86BC-4B1E-4059-9943-335F5A61D0AA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EA86BC-4B1E-4059-9943-335F5A61D0AA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2203,7 +2203,7 @@
         <xdr:cNvPr id="43" name="Group 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A0CC41D-6932-41C3-A20C-D28B643AEA1B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0CC41D-6932-41C3-A20C-D28B643AEA1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2222,7 @@
           <xdr:cNvPr id="34" name="Graphic 33" descr="Run">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D3A477F-B806-4947-9B23-8E8C5B7710E4}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3A477F-B806-4947-9B23-8E8C5B7710E4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2237,7 +2237,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2260,7 +2260,7 @@
           <xdr:cNvPr id="40" name="Graphic 39" descr="Fire">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55AEB81B-6082-4CF7-A6E7-9012269F2B61}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AEB81B-6082-4CF7-A6E7-9012269F2B61}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2275,7 +2275,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2298,7 +2298,7 @@
           <xdr:cNvPr id="41" name="TextBox 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DEF5640-1D66-4EE5-9297-46AE3FD3F71B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF5640-1D66-4EE5-9297-46AE3FD3F71B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2380,7 +2380,7 @@
         <xdr:cNvPr id="49" name="Group 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA6F0C16-C0F2-46BE-BF10-8CED58FDEB25}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6F0C16-C0F2-46BE-BF10-8CED58FDEB25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2399,7 @@
           <xdr:cNvPr id="45" name="Graphic 44" descr="Run">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A59668DB-7467-4EB9-BA68-3C44B6B2AF51}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59668DB-7467-4EB9-BA68-3C44B6B2AF51}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2414,7 +2414,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2437,7 +2437,7 @@
           <xdr:cNvPr id="47" name="Graphic 46" descr="Car">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{239640D5-8BBB-49A5-9208-7DBF898135E6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239640D5-8BBB-49A5-9208-7DBF898135E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2452,7 +2452,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2475,7 +2475,7 @@
           <xdr:cNvPr id="48" name="TextBox 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{017CBDAE-2538-4BBF-8AF3-A7DBC2BEA6C2}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017CBDAE-2538-4BBF-8AF3-A7DBC2BEA6C2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2567,7 +2567,7 @@
         <xdr:cNvPr id="51" name="Group 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFF2C796-1310-44FC-8329-CFFEB2D70841}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF2C796-1310-44FC-8329-CFFEB2D70841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2586,7 @@
           <xdr:cNvPr id="30" name="Graphic 29" descr="Teacher">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2808CA12-4DE7-452C-BF9E-F92E63C7A71A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2808CA12-4DE7-452C-BF9E-F92E63C7A71A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2601,7 +2601,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2624,7 +2624,7 @@
           <xdr:cNvPr id="50" name="TextBox 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{609F8E76-5291-4AE3-9A81-32C5260C349B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609F8E76-5291-4AE3-9A81-32C5260C349B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2697,7 +2697,7 @@
         <xdr:cNvPr id="59" name="Group 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29D3DA6A-B91D-4942-A3B6-F1800F674D73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D3DA6A-B91D-4942-A3B6-F1800F674D73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2716,7 @@
           <xdr:cNvPr id="53" name="Graphic 52" descr="Firefighter">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0510D4A7-0655-412F-B35A-E0C9F6852ED8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0510D4A7-0655-412F-B35A-E0C9F6852ED8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2731,7 +2731,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2754,7 +2754,7 @@
           <xdr:cNvPr id="55" name="Graphic 54" descr="Dance">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D26409A-E575-40AB-91FE-F0ADE865C868}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D26409A-E575-40AB-91FE-F0ADE865C868}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2769,7 +2769,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2792,7 +2792,7 @@
           <xdr:cNvPr id="56" name="TextBox 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9E95BAE-66C4-4A7C-9172-2EBC98FEB532}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E95BAE-66C4-4A7C-9172-2EBC98FEB532}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2849,7 +2849,7 @@
           <xdr:cNvPr id="58" name="Graphic 57" descr="Champagne glasses">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59AC05FE-985F-43E7-997B-1DC982F6FDE6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AC05FE-985F-43E7-997B-1DC982F6FDE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2864,7 +2864,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2903,7 +2903,7 @@
         <xdr:cNvPr id="64" name="Group 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E84CB8D6-4644-4285-AEF2-7D061A604B1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84CB8D6-4644-4285-AEF2-7D061A604B1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2922,7 @@
           <xdr:cNvPr id="36" name="Graphic 35" descr="Professor">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B66B352F-C2FB-4972-8E06-F72AAC861EC8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66B352F-C2FB-4972-8E06-F72AAC861EC8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2937,7 +2937,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2960,7 +2960,7 @@
           <xdr:cNvPr id="61" name="Graphic 60" descr="Puzzle pieces">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BE0AF46-6FFB-4F29-ACE7-EECA1A921878}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE0AF46-6FFB-4F29-ACE7-EECA1A921878}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2975,7 +2975,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId20"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2998,7 +2998,7 @@
           <xdr:cNvPr id="62" name="Graphic 61" descr="Firefighter">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C69D62C5-227C-4429-AA14-CECB8A1A70DD}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69D62C5-227C-4429-AA14-CECB8A1A70DD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3013,7 +3013,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3036,7 +3036,7 @@
           <xdr:cNvPr id="63" name="TextBox 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5FA3C42-8085-4CB7-A6D7-B1C982ED06F0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FA3C42-8085-4CB7-A6D7-B1C982ED06F0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3109,7 +3109,7 @@
         <xdr:cNvPr id="70" name="Group 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8374E2B-69FC-4A52-AA3B-E1F2DB0A901A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8374E2B-69FC-4A52-AA3B-E1F2DB0A901A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,7 +3128,7 @@
           <xdr:cNvPr id="66" name="Graphic 65" descr="Teacher">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09A1738F-912E-447A-8F1D-93DBCDA3F030}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A1738F-912E-447A-8F1D-93DBCDA3F030}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3143,7 +3143,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3166,7 +3166,7 @@
           <xdr:cNvPr id="68" name="Graphic 67" descr="Group of men">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B52E31B-92C6-4ABA-A08B-DD2D3AC3DB9A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B52E31B-92C6-4ABA-A08B-DD2D3AC3DB9A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3181,7 +3181,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId24"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3204,7 +3204,7 @@
           <xdr:cNvPr id="69" name="TextBox 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A0EE795-DA4E-4EF9-BCA2-494D8CDCAF39}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0EE795-DA4E-4EF9-BCA2-494D8CDCAF39}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3277,7 +3277,7 @@
         <xdr:cNvPr id="75" name="Group 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCCEC805-68B3-4D3F-B31F-1D139A104D8B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCEC805-68B3-4D3F-B31F-1D139A104D8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3296,7 +3296,7 @@
           <xdr:cNvPr id="73" name="Graphic 72" descr="Stopwatch">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C0CFB32-D53F-434C-B7D8-AC67635B1D62}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0CFB32-D53F-434C-B7D8-AC67635B1D62}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3311,7 +3311,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId26"/>
+                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3334,7 +3334,7 @@
           <xdr:cNvPr id="74" name="TextBox 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7B20627-EAA9-46D6-A0EF-CEE3EFD7CD7F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B20627-EAA9-46D6-A0EF-CEE3EFD7CD7F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3728,7 +3728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Statistik.xlsx
+++ b/Statistik.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feuerwehr Lengenfeld\Documents\Flobo\2020\Florianibote2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1E7F5C-A347-4258-8644-DB77B342C2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einsätze" sheetId="1" r:id="rId1"/>
@@ -12,15 +18,10 @@
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId3"/>
     <sheet name="Testen" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,9 +116,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -211,7 +212,7 @@
               <c:f>Einsätze!$C$3:$E$3</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-03C3-4765-B7E7-4720BAA23E82}"/>
             </c:ext>
@@ -276,7 +277,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-03C3-4765-B7E7-4720BAA23E82}"/>
             </c:ext>
@@ -341,7 +342,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-03C3-4765-B7E7-4720BAA23E82}"/>
             </c:ext>
@@ -406,7 +407,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-03C3-4765-B7E7-4720BAA23E82}"/>
             </c:ext>
@@ -609,9 +610,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -656,6 +657,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -690,7 +711,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-671B-4EF4-A094-3D5DF805B69B}"/>
               </c:ext>
@@ -710,7 +731,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-671B-4EF4-A094-3D5DF805B69B}"/>
               </c:ext>
@@ -730,7 +751,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-671B-4EF4-A094-3D5DF805B69B}"/>
               </c:ext>
@@ -771,7 +792,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CDC4-4D91-9317-88F1F9D056D7}"/>
             </c:ext>
@@ -830,14 +851,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1996,7 +2017,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9AE7CD-1B0E-457C-8C89-9DEA06CA316C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9AE7CD-1B0E-457C-8C89-9DEA06CA316C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2053,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9CB5DA-C670-4A94-8B78-49950A1AB9C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9CB5DA-C670-4A94-8B78-49950A1AB9C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2094,7 @@
         <xdr:cNvPr id="71" name="Group 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B24EEEB-3250-4085-985E-BF2194A03637}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B24EEEB-3250-4085-985E-BF2194A03637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2113,7 @@
           <xdr:cNvPr id="38" name="Graphic 37" descr="Firefighter">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4455EC-7B99-4120-AB5B-7F11819D2246}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4455EC-7B99-4120-AB5B-7F11819D2246}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2107,7 +2128,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2130,7 +2151,7 @@
           <xdr:cNvPr id="25" name="TextBox 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EA86BC-4B1E-4059-9943-335F5A61D0AA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EA86BC-4B1E-4059-9943-335F5A61D0AA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2203,7 +2224,7 @@
         <xdr:cNvPr id="43" name="Group 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0CC41D-6932-41C3-A20C-D28B643AEA1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0CC41D-6932-41C3-A20C-D28B643AEA1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2243,7 @@
           <xdr:cNvPr id="34" name="Graphic 33" descr="Run">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3A477F-B806-4947-9B23-8E8C5B7710E4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3A477F-B806-4947-9B23-8E8C5B7710E4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2237,7 +2258,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2260,7 +2281,7 @@
           <xdr:cNvPr id="40" name="Graphic 39" descr="Fire">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AEB81B-6082-4CF7-A6E7-9012269F2B61}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AEB81B-6082-4CF7-A6E7-9012269F2B61}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2275,7 +2296,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2298,7 +2319,7 @@
           <xdr:cNvPr id="41" name="TextBox 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF5640-1D66-4EE5-9297-46AE3FD3F71B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF5640-1D66-4EE5-9297-46AE3FD3F71B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2380,7 +2401,7 @@
         <xdr:cNvPr id="49" name="Group 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6F0C16-C0F2-46BE-BF10-8CED58FDEB25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6F0C16-C0F2-46BE-BF10-8CED58FDEB25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2420,7 @@
           <xdr:cNvPr id="45" name="Graphic 44" descr="Run">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59668DB-7467-4EB9-BA68-3C44B6B2AF51}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59668DB-7467-4EB9-BA68-3C44B6B2AF51}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2414,7 +2435,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2437,7 +2458,7 @@
           <xdr:cNvPr id="47" name="Graphic 46" descr="Car">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239640D5-8BBB-49A5-9208-7DBF898135E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239640D5-8BBB-49A5-9208-7DBF898135E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2452,7 +2473,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2475,7 +2496,7 @@
           <xdr:cNvPr id="48" name="TextBox 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017CBDAE-2538-4BBF-8AF3-A7DBC2BEA6C2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017CBDAE-2538-4BBF-8AF3-A7DBC2BEA6C2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2567,7 +2588,7 @@
         <xdr:cNvPr id="51" name="Group 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF2C796-1310-44FC-8329-CFFEB2D70841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF2C796-1310-44FC-8329-CFFEB2D70841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2607,7 @@
           <xdr:cNvPr id="30" name="Graphic 29" descr="Teacher">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2808CA12-4DE7-452C-BF9E-F92E63C7A71A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2808CA12-4DE7-452C-BF9E-F92E63C7A71A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2601,7 +2622,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2624,7 +2645,7 @@
           <xdr:cNvPr id="50" name="TextBox 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609F8E76-5291-4AE3-9A81-32C5260C349B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609F8E76-5291-4AE3-9A81-32C5260C349B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2697,7 +2718,7 @@
         <xdr:cNvPr id="59" name="Group 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D3DA6A-B91D-4942-A3B6-F1800F674D73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D3DA6A-B91D-4942-A3B6-F1800F674D73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2737,7 @@
           <xdr:cNvPr id="53" name="Graphic 52" descr="Firefighter">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0510D4A7-0655-412F-B35A-E0C9F6852ED8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0510D4A7-0655-412F-B35A-E0C9F6852ED8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2731,7 +2752,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2754,7 +2775,7 @@
           <xdr:cNvPr id="55" name="Graphic 54" descr="Dance">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D26409A-E575-40AB-91FE-F0ADE865C868}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D26409A-E575-40AB-91FE-F0ADE865C868}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2769,7 +2790,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2792,7 +2813,7 @@
           <xdr:cNvPr id="56" name="TextBox 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E95BAE-66C4-4A7C-9172-2EBC98FEB532}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E95BAE-66C4-4A7C-9172-2EBC98FEB532}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2849,7 +2870,7 @@
           <xdr:cNvPr id="58" name="Graphic 57" descr="Champagne glasses">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AC05FE-985F-43E7-997B-1DC982F6FDE6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AC05FE-985F-43E7-997B-1DC982F6FDE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2864,7 +2885,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2903,7 +2924,7 @@
         <xdr:cNvPr id="64" name="Group 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84CB8D6-4644-4285-AEF2-7D061A604B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84CB8D6-4644-4285-AEF2-7D061A604B1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2943,7 @@
           <xdr:cNvPr id="36" name="Graphic 35" descr="Professor">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66B352F-C2FB-4972-8E06-F72AAC861EC8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66B352F-C2FB-4972-8E06-F72AAC861EC8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2937,7 +2958,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2960,7 +2981,7 @@
           <xdr:cNvPr id="61" name="Graphic 60" descr="Puzzle pieces">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE0AF46-6FFB-4F29-ACE7-EECA1A921878}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE0AF46-6FFB-4F29-ACE7-EECA1A921878}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2975,7 +2996,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2998,7 +3019,7 @@
           <xdr:cNvPr id="62" name="Graphic 61" descr="Firefighter">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69D62C5-227C-4429-AA14-CECB8A1A70DD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69D62C5-227C-4429-AA14-CECB8A1A70DD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3013,7 +3034,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3036,7 +3057,7 @@
           <xdr:cNvPr id="63" name="TextBox 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FA3C42-8085-4CB7-A6D7-B1C982ED06F0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FA3C42-8085-4CB7-A6D7-B1C982ED06F0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3109,7 +3130,7 @@
         <xdr:cNvPr id="70" name="Group 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8374E2B-69FC-4A52-AA3B-E1F2DB0A901A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8374E2B-69FC-4A52-AA3B-E1F2DB0A901A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,7 +3149,7 @@
           <xdr:cNvPr id="66" name="Graphic 65" descr="Teacher">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A1738F-912E-447A-8F1D-93DBCDA3F030}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A1738F-912E-447A-8F1D-93DBCDA3F030}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3143,7 +3164,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3166,7 +3187,7 @@
           <xdr:cNvPr id="68" name="Graphic 67" descr="Group of men">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B52E31B-92C6-4ABA-A08B-DD2D3AC3DB9A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B52E31B-92C6-4ABA-A08B-DD2D3AC3DB9A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3181,7 +3202,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3204,7 +3225,7 @@
           <xdr:cNvPr id="69" name="TextBox 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0EE795-DA4E-4EF9-BCA2-494D8CDCAF39}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0EE795-DA4E-4EF9-BCA2-494D8CDCAF39}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3277,7 +3298,7 @@
         <xdr:cNvPr id="75" name="Group 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCEC805-68B3-4D3F-B31F-1D139A104D8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCEC805-68B3-4D3F-B31F-1D139A104D8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3296,7 +3317,7 @@
           <xdr:cNvPr id="73" name="Graphic 72" descr="Stopwatch">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0CFB32-D53F-434C-B7D8-AC67635B1D62}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0CFB32-D53F-434C-B7D8-AC67635B1D62}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3311,7 +3332,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3334,7 +3355,7 @@
           <xdr:cNvPr id="74" name="TextBox 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B20627-EAA9-46D6-A0EF-CEE3EFD7CD7F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B20627-EAA9-46D6-A0EF-CEE3EFD7CD7F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3406,7 +3427,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>200 000 Euro Arbeitsleistung</a:t>
+              <a:t>119 000 Euro Arbeitsleistung</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3728,14 +3749,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3827,7 +3848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3841,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3912,11 +3933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Statistik.xlsx
+++ b/Statistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feuerwehr Lengenfeld\Documents\Flobo\2020\Florianibote2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korme\Documents\Feuerwehr\Flobo\Florianibote2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1E7F5C-A347-4258-8644-DB77B342C2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0DFC5F-63D8-4FD6-A983-68DC62898993}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einsätze" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,34 @@
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId3"/>
     <sheet name="Testen" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Testen!$K$7:$K$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Testen!$L$7:$L$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Testen!$K$7:$K$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Testen!$L$7:$L$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Testen!$K$7:$K$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Testen!$L$7:$L$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Einsätze</t>
   </si>
@@ -61,6 +78,15 @@
   </si>
   <si>
     <t>Schulungen/Übungen</t>
+  </si>
+  <si>
+    <t>Jugend</t>
+  </si>
+  <si>
+    <t>Aktive</t>
+  </si>
+  <si>
+    <t>Reservisten</t>
   </si>
 </sst>
 </file>
@@ -100,10 +126,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE83618"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -118,7 +149,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -155,7 +186,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -467,7 +498,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="136180224"/>
@@ -526,7 +557,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="200370176"/>
@@ -568,7 +599,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -598,7 +629,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -612,7 +643,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -674,7 +705,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -845,7 +876,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -882,7 +913,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -891,6 +922,71 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="sunburst" uniqueId="{BDD0D981-4387-4FE4-A8B3-2FF3A47D4753}">
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="85000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E6E6">
+                  <a:lumMod val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E6E6">
+                  <a:lumMod val="25000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,6 +1069,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1993,6 +2126,516 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2078,23 +2721,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>366031</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>175457</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>384310</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>169294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>366032</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99332</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>640839</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>141756</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71" name="Group 70">
+        <xdr:cNvPr id="14" name="Group 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B24EEEB-3250-4085-985E-BF2194A03637}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE9750E-E3B3-46B5-A83F-03825CEFF958}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,1196 +2745,486 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2978602" y="2651957"/>
-          <a:ext cx="1959430" cy="1066875"/>
-          <a:chOff x="3427638" y="1971600"/>
-          <a:chExt cx="1959430" cy="1066875"/>
+          <a:off x="384310" y="6455794"/>
+          <a:ext cx="3542654" cy="3401462"/>
+          <a:chOff x="184180" y="5025362"/>
+          <a:chExt cx="3566188" cy="3401462"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="38" name="Graphic 37" descr="Firefighter">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="51" name="Group 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4455EC-7B99-4120-AB5B-7F11819D2246}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF2C796-1310-44FC-8329-CFFEB2D70841}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3947357" y="1971600"/>
-            <a:ext cx="910318" cy="914400"/>
+            <a:off x="335332" y="6720865"/>
+            <a:ext cx="2122887" cy="1705959"/>
+            <a:chOff x="714373" y="781050"/>
+            <a:chExt cx="2133601" cy="1724025"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="TextBox 24">
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="30" name="Graphic 29" descr="Teacher">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2808CA12-4DE7-452C-BF9E-F92E63C7A71A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="819150" y="781050"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="TextBox 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609F8E76-5291-4AE3-9A81-32C5260C349B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="714373" y="1495425"/>
+              <a:ext cx="2133601" cy="1009650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>24 Kursbesuche</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="64" name="Group 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EA86BC-4B1E-4059-9943-335F5A61D0AA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84CB8D6-4644-4285-AEF2-7D061A604B1C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3427638" y="2762250"/>
-            <a:ext cx="1959430" cy="276225"/>
+            <a:off x="184180" y="5025362"/>
+            <a:ext cx="2527963" cy="1159725"/>
+            <a:chOff x="592875" y="1021500"/>
+            <a:chExt cx="2512275" cy="1159725"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="Graphic 35" descr="Professor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66B352F-C2FB-4972-8E06-F72AAC861EC8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="592875" y="1021500"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Graphic 60" descr="Puzzle pieces">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE0AF46-6FFB-4F29-ACE7-EECA1A921878}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1438275" y="1076325"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="Graphic 61" descr="Firefighter">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69D62C5-227C-4429-AA14-CECB8A1A70DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2114475" y="1076250"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="TextBox 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FA3C42-8085-4CB7-A6D7-B1C982ED06F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="628648" y="1905000"/>
+              <a:ext cx="2476502" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0"/>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>70 Feuerwehrmitglieder</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>117 Übungen und Schulungen</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="70" name="Group 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8374E2B-69FC-4A52-AA3B-E1F2DB0A901A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1391527" y="6255124"/>
+            <a:ext cx="2358841" cy="1114425"/>
+            <a:chOff x="323848" y="1752600"/>
+            <a:chExt cx="2343152" cy="1114425"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="66" name="Graphic 65" descr="Teacher">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A1738F-912E-447A-8F1D-93DBCDA3F030}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="466725" y="1752600"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="68" name="Graphic 67" descr="Group of men">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B52E31B-92C6-4ABA-A08B-DD2D3AC3DB9A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1445400" y="1759725"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="TextBox 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0EE795-DA4E-4EF9-BCA2-494D8CDCAF39}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="323848" y="2590800"/>
+              <a:ext cx="2343152" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>78 Kleingruppenschulungen</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>579663</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>16971</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>117021</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="Group 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0CC41D-6932-41C3-A20C-D28B643AEA1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3845377" y="7446471"/>
-          <a:ext cx="1496787" cy="1166850"/>
-          <a:chOff x="495299" y="233325"/>
-          <a:chExt cx="1504951" cy="1166850"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="34" name="Graphic 33" descr="Run">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3A477F-B806-4947-9B23-8E8C5B7710E4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="519075" y="233325"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="40" name="Graphic 39" descr="Fire">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AEB81B-6082-4CF7-A6E7-9012269F2B61}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1295400" y="314325"/>
-            <a:ext cx="704850" cy="704850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="TextBox 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF5640-1D66-4EE5-9297-46AE3FD3F71B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="495299" y="1123950"/>
-            <a:ext cx="1438276" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Brandeinsätze</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-AT" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>623206</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>62592</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>632731</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53067</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="Group 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6F0C16-C0F2-46BE-BF10-8CED58FDEB25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="623206" y="2539092"/>
-          <a:ext cx="1968954" cy="1133475"/>
-          <a:chOff x="638175" y="190500"/>
-          <a:chExt cx="1981200" cy="1133475"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="45" name="Graphic 44" descr="Run">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59668DB-7467-4EB9-BA68-3C44B6B2AF51}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="638175" y="190500"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="47" name="Graphic 46" descr="Car">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239640D5-8BBB-49A5-9208-7DBF898135E6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="1447800" y="276225"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="TextBox 47">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017CBDAE-2538-4BBF-8AF3-A7DBC2BEA6C2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="647699" y="1047750"/>
-            <a:ext cx="1971676" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0"/>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>49 technische</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> Einsätze</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-AT" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>405492</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>127908</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>567418</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>137433</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="Group 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF2C796-1310-44FC-8329-CFFEB2D70841}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3018063" y="5652408"/>
-          <a:ext cx="2121355" cy="1724025"/>
-          <a:chOff x="714373" y="781050"/>
-          <a:chExt cx="2133601" cy="1724025"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="30" name="Graphic 29" descr="Teacher">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2808CA12-4DE7-452C-BF9E-F92E63C7A71A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="819150" y="781050"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="TextBox 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609F8E76-5291-4AE3-9A81-32C5260C349B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="714373" y="1495425"/>
-            <a:ext cx="2133601" cy="1009650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0"/>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>24 Kursbesuche</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>259895</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>374196</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="59" name="Group 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D3DA6A-B91D-4942-A3B6-F1800F674D73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3525609" y="4126006"/>
-          <a:ext cx="2073730" cy="1126350"/>
-          <a:chOff x="666749" y="3683775"/>
-          <a:chExt cx="2085976" cy="1126350"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="53" name="Graphic 52" descr="Firefighter">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0510D4A7-0655-412F-B35A-E0C9F6852ED8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1838325" y="3733800"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="55" name="Graphic 54" descr="Dance">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D26409A-E575-40AB-91FE-F0ADE865C868}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1083450" y="3683775"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="TextBox 55">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E95BAE-66C4-4A7C-9172-2EBC98FEB532}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="666749" y="4533900"/>
-            <a:ext cx="2085976" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0"/>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>1 Brandsicherheitswache</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="58" name="Graphic 57" descr="Champagne glasses">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AC05FE-985F-43E7-997B-1DC982F6FDE6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="866775" y="4143375"/>
-            <a:ext cx="381000" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>296238</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>49950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>179613</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="64" name="Group 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84CB8D6-4644-4285-AEF2-7D061A604B1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="296238" y="4812450"/>
-          <a:ext cx="2495946" cy="1159725"/>
-          <a:chOff x="592875" y="1021500"/>
-          <a:chExt cx="2512275" cy="1159725"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="36" name="Graphic 35" descr="Professor">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66B352F-C2FB-4972-8E06-F72AAC861EC8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="592875" y="1021500"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="61" name="Graphic 60" descr="Puzzle pieces">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE0AF46-6FFB-4F29-ACE7-EECA1A921878}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1438275" y="1076325"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="62" name="Graphic 61" descr="Firefighter">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69D62C5-227C-4429-AA14-CECB8A1A70DD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2114475" y="1076250"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="TextBox 62">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FA3C42-8085-4CB7-A6D7-B1C982ED06F0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="628648" y="1905000"/>
-            <a:ext cx="2476502" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0"/>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>117 Übungen und Schulungen</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>360587</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>74840</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="70" name="Group 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8374E2B-69FC-4A52-AA3B-E1F2DB0A901A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="360587" y="7353300"/>
-          <a:ext cx="2326824" cy="1114425"/>
-          <a:chOff x="323848" y="1752600"/>
-          <a:chExt cx="2343152" cy="1114425"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="66" name="Graphic 65" descr="Teacher">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A1738F-912E-447A-8F1D-93DBCDA3F030}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="466725" y="1752600"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="68" name="Graphic 67" descr="Group of men">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B52E31B-92C6-4ABA-A08B-DD2D3AC3DB9A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1445400" y="1759725"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="TextBox 68">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0EE795-DA4E-4EF9-BCA2-494D8CDCAF39}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="323848" y="2590800"/>
-            <a:ext cx="2343152" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0"/>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>78 Kleingruppenschulungen</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>570137</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>176894</xdr:rowOff>
+      <xdr:colOff>618632</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28671</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3306,8 +3239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="570137" y="666751"/>
-          <a:ext cx="2382613" cy="1605643"/>
+          <a:off x="3476625" y="1852028"/>
+          <a:ext cx="2399807" cy="1605643"/>
           <a:chOff x="3291565" y="449036"/>
           <a:chExt cx="2382613" cy="1605643"/>
         </a:xfrm>
@@ -3326,13 +3259,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3455,6 +3388,1462 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>235529</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>659437</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>130115</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83E2770-8022-47B2-9370-834696E25F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1549979" y="3669622"/>
+          <a:ext cx="3710033" cy="2365993"/>
+          <a:chOff x="2146642" y="3263153"/>
+          <a:chExt cx="3729642" cy="2365993"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="59" name="Group 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D3DA6A-B91D-4942-A3B6-F1800F674D73}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3778542" y="3263153"/>
+            <a:ext cx="2097742" cy="1126350"/>
+            <a:chOff x="666749" y="3683775"/>
+            <a:chExt cx="2085976" cy="1126350"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Graphic 52" descr="Firefighter">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0510D4A7-0655-412F-B35A-E0C9F6852ED8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1838325" y="3733800"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="55" name="Graphic 54" descr="Dance">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D26409A-E575-40AB-91FE-F0ADE865C868}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1083450" y="3683775"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="TextBox 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E95BAE-66C4-4A7C-9172-2EBC98FEB532}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="666749" y="4533900"/>
+              <a:ext cx="2085976" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1 Brandsicherheitswache</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="58" name="Graphic 57" descr="Champagne glasses">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AC05FE-985F-43E7-997B-1DC982F6FDE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="866775" y="4143375"/>
+              <a:ext cx="381000" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="Group 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F92252A-AFA4-40C7-9BAD-961B3DEC13BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2146642" y="4006885"/>
+            <a:ext cx="2038354" cy="1189682"/>
+            <a:chOff x="577818" y="2482885"/>
+            <a:chExt cx="2038354" cy="1189682"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="TextBox 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017CBDAE-2538-4BBF-8AF3-A7DBC2BEA6C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="632762" y="3396342"/>
+              <a:ext cx="1983410" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>49 technische</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> Einsätze</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-AT" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Picture 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEF48B5-EAFD-4663-842F-33DA14CEDD5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="577818" y="2554941"/>
+              <a:ext cx="991935" cy="851647"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Picture 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F108F33-BFC8-440F-9015-CA2BDF9D3AD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1517143" y="2482885"/>
+              <a:ext cx="989558" cy="834056"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="Group 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1D99C8-33EA-476D-8B60-3196B9315930}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4101353" y="4580576"/>
+            <a:ext cx="1591236" cy="1048570"/>
+            <a:chOff x="3350559" y="6082165"/>
+            <a:chExt cx="1591236" cy="1048570"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="TextBox 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF5640-1D66-4EE5-9297-46AE3FD3F71B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3355311" y="6854510"/>
+              <a:ext cx="1446903" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> Brandeinsätze</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-AT" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Picture 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FDC864-3765-40BE-978F-2660C02F175F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3765177" y="6082165"/>
+              <a:ext cx="1176618" cy="926166"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Picture 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F06D3C6-7321-4452-9F60-35B88DCCBD8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3350559" y="6196853"/>
+              <a:ext cx="854091" cy="730858"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>131414</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64739</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112789</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Group 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05AB0814-1DFD-4CD6-BFD1-11BD38DA5E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="131414" y="225852"/>
+          <a:ext cx="5191125" cy="2934937"/>
+          <a:chOff x="0" y="278469"/>
+          <a:chExt cx="5191125" cy="2934937"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="16" name="Chart 15">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9741637-0CBB-4B8C-83EC-A69CA209D6AB}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="542925" y="864533"/>
+              <a:ext cx="3234018" cy="2348873"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="542925" y="864533"/>
+                <a:ext cx="3234018" cy="2348873"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-AT" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="Straight Connector 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A633F5E-9BE0-4E92-938F-12EF3E8C792E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3248026" y="1666875"/>
+            <a:ext cx="704849" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="TextBox 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0475624-393D-4C06-B6B0-405E22CA5987}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="430624" y="278469"/>
+            <a:ext cx="1388651" cy="434046"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="en-AT" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>9 Reservisten</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="Straight Connector 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0953F36-3DD6-4EAF-BEE7-F4191D25E1A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="1162050" y="647700"/>
+            <a:ext cx="619126" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="Straight Connector 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D221D6-40B2-431C-993F-CDABED323AFE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="514351" y="1762125"/>
+            <a:ext cx="581024" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="TextBox 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B71B106-CC17-42DC-A008-4016406A5BAB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3802474" y="1383369"/>
+            <a:ext cx="1388651" cy="434046"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="en-AT" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>69</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AT" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Aktive</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="TextBox 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484A504C-7CFF-4E5A-911E-882F7DBAB497}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="2621619"/>
+            <a:ext cx="1388651" cy="434046"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="en-AT" sz="1400" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>18</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AT" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Jugendliche</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT" sz="1400" b="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605119</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F59BCC0-9AB3-4179-BF4F-BBE5D8E0E79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33618" y="89647"/>
+          <a:ext cx="5860677" cy="3451412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AT" sz="1100">
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>611842</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A171DFAB-529B-42BE-8D3F-037DBD4FAD6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="3557921"/>
+          <a:ext cx="4511489" cy="2706168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AT" sz="1100">
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>24655</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="TextBox 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FC9841-9985-478B-A6FD-7F90E4EEC86C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24655" y="6266329"/>
+          <a:ext cx="4614580" cy="3056966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AT" sz="1100">
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C68285D-387E-49D5-8D68-84E9836B7A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3440206" y="336177"/>
+          <a:ext cx="1804147" cy="616323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AT" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Allgmeines </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>293594</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>583279</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="TextBox 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4933F1DD-61AE-4F77-A7A3-92698E8984AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1615888" y="3722594"/>
+          <a:ext cx="1611979" cy="401171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AT" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Einsätze</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>199465</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>489150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="TextBox 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC9000D-156D-4216-9272-D62450D8D750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2844053" y="6676464"/>
+          <a:ext cx="1611979" cy="472889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AT" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Übungen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>363631</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9BECC4-0959-4842-903B-152664A8D761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1678081" y="1793503"/>
+          <a:ext cx="1722343" cy="479832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AT" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Mitglieder</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3763,7 +5152,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -3855,7 +5244,7 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3869,7 +5258,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3934,14 +5323,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="K7:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Statistik.xlsx
+++ b/Statistik.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korme\Documents\Feuerwehr\Flobo\Florianibote2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feuerwehr Lengenfeld\Documents\Flobo\2020\Florianibote2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0DFC5F-63D8-4FD6-A983-68DC62898993}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972BB4BD-A4A1-4013-9710-A7757FCE6192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einsätze" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Testen!$K$7:$K$9</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Testen!$L$7:$L$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Testen!$K$7:$K$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Testen!$L$7:$L$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Testen!$K$7:$K$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Testen!$L$7:$L$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -126,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -149,7 +145,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -186,7 +182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -498,7 +494,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="136180224"/>
@@ -557,7 +553,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="200370176"/>
@@ -599,7 +595,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -629,7 +625,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -643,7 +639,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -705,7 +701,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -876,7 +872,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -913,7 +909,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3684,7 +3680,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>49 technische</a:t>
+                <a:t>52 technische</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-AT" sz="1400" baseline="0">
@@ -4024,9 +4020,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:r>
-                  <a:rPr lang="en-AT" sz="1100"/>
-                  <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                  <a:rPr lang="de-DE" sz="1100"/>
+                  <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
                 </a:r>
               </a:p>
             </xdr:txBody>
@@ -4437,13 +4433,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>128921</xdr:rowOff>
+      <xdr:rowOff>109871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>611842</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
+      <xdr:rowOff>149039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4458,8 +4454,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1389529" y="3557921"/>
-          <a:ext cx="4511489" cy="2706168"/>
+          <a:off x="1381685" y="3538871"/>
+          <a:ext cx="4487957" cy="2706168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4850,7 +4846,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5152,7 +5148,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -5244,7 +5240,7 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5258,7 +5254,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5325,11 +5321,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="K7:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="7" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
